--- a/user/student_id.xlsx
+++ b/user/student_id.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Python_Project\mediapipe-gui-quiz 2024-02-05\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Python_Project\mediapipe-quiz\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF7160-2CDC-4873-A6DF-153962B77B13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F2FB7-53F8-4F36-A63A-997FDC4F3D9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10152" xr2:uid="{F2A639A9-E5F5-4258-AE9B-B0898E46EDAA}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -571,10 +571,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -656,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
@@ -676,21 +676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010000F6AC2BEFF74844BFB3B3DF475169D1" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="d1c3e191eaa3b3d043c77aceeb16ac46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f0b858c0-b684-4e20-8d6c-553501f9264d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cd1d8504ea3a92980077f3cd9ae99dc" ns3:_="">
     <xsd:import namespace="f0b858c0-b684-4e20-8d6c-553501f9264d"/>
@@ -872,10 +857,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{408DC6E3-B786-46B8-931C-82FBE053C2E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12FCB677-FFCE-4C58-A969-D78675DA5346}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f0b858c0-b684-4e20-8d6c-553501f9264d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -897,19 +907,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12FCB677-FFCE-4C58-A969-D78675DA5346}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{408DC6E3-B786-46B8-931C-82FBE053C2E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f0b858c0-b684-4e20-8d6c-553501f9264d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>